--- a/For DB/1.xlsx
+++ b/For DB/1.xlsx
@@ -19,10 +19,10 @@
     <x:t>Отчет по группам здоровья для отделений</x:t>
   </x:si>
   <x:si>
-    <x:t>Всего выбрано студентов: 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «Основная»: 5 (100%)</x:t>
+    <x:t>Всего выбрано студентов: 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Основная»: 20 (80%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой по физкультуре «Подготовительная»: 0 (0%)</x:t>
@@ -34,7 +34,13 @@
     <x:t>Студентов с группой по физкультуре «ЛФК»: 0 (0%)</x:t>
   </x:si>
   <x:si>
-    <x:t>Студентов с группой здоровья «1-группа»: 5 (100%)</x:t>
+    <x:t>Студентов с группой по физкультуре «Освобождение»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Не указана»: 5 (20%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «1-группа»: 25 (100%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой здоровья «2-группа»: 0 (0%)</x:t>
@@ -73,6 +79,201 @@
     <x:t>Группа годна</x:t>
   </x:si>
   <x:si>
+    <x:t>Белов Е. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Т-095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планово-экономическая и аналитическая деятельность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основная</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Васильев А. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.03.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Волков Н. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Волынцев Н. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Голубев С. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Гусев Р. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.06.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ильин Т. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.06.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Киселев И. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Комаров М. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кузнецов С. П.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Морозов А. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Новиков Я. М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Осипов Д. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Павлов А. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.06.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Петров И. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Попов Д. И.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Семенов В. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смирнов А. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Соловьев М. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Титов П. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: Не указана</x:t>
+  </x:si>
+  <x:si>
     <x:t>Васильева У. И.</x:t>
   </x:si>
   <x:si>
@@ -82,16 +283,13 @@
     <x:t>Неопределенные</x:t>
   </x:si>
   <x:si>
-    <x:t>Основная</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-группа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.12.2024</x:t>
+    <x:t>Не указана</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.05.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.05.2025</x:t>
   </x:si>
   <x:si>
     <x:t>Захаров К. Е.</x:t>
@@ -205,7 +403,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -224,8 +422,11 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -271,6 +472,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -569,7 +778,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H21"/>
+  <x:dimension ref="A1:H46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -655,9 +864,21 @@
       <x:c r="G8" s="5"/>
       <x:c r="H8" s="5"/>
     </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="5"/>
+      <x:c r="C9" s="5"/>
+      <x:c r="D9" s="5"/>
+      <x:c r="E9" s="5"/>
+      <x:c r="F9" s="5"/>
+      <x:c r="G9" s="5"/>
+      <x:c r="H9" s="5"/>
+    </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B10" s="5"/>
       <x:c r="C10" s="5"/>
@@ -667,18 +888,6 @@
       <x:c r="G10" s="5"/>
       <x:c r="H10" s="5"/>
     </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B11" s="5"/>
-      <x:c r="C11" s="5"/>
-      <x:c r="D11" s="5"/>
-      <x:c r="E11" s="5"/>
-      <x:c r="F11" s="5"/>
-      <x:c r="G11" s="5"/>
-      <x:c r="H11" s="5"/>
-    </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="4" t="s">
         <x:v>8</x:v>
@@ -703,120 +912,92 @@
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5"/>
     </x:row>
-    <x:row r="15" spans="1:8" ht="22" customHeight="1">
-      <x:c r="A15" s="6" t="s">
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="4" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B15" s="7"/>
-      <x:c r="C15" s="7"/>
-      <x:c r="D15" s="7"/>
-      <x:c r="E15" s="7"/>
-      <x:c r="F15" s="7"/>
-      <x:c r="G15" s="7"/>
-      <x:c r="H15" s="7"/>
-    </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="A16" s="8" t="s">
+      <x:c r="B14" s="5"/>
+      <x:c r="C14" s="5"/>
+      <x:c r="D14" s="5"/>
+      <x:c r="E14" s="5"/>
+      <x:c r="F14" s="5"/>
+      <x:c r="G14" s="5"/>
+      <x:c r="H14" s="5"/>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="9" t="s">
+      <x:c r="B15" s="5"/>
+      <x:c r="C15" s="5"/>
+      <x:c r="D15" s="5"/>
+      <x:c r="E15" s="5"/>
+      <x:c r="F15" s="5"/>
+      <x:c r="G15" s="5"/>
+      <x:c r="H15" s="5"/>
+    </x:row>
+    <x:row r="17" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A17" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C16" s="9" t="s">
+      <x:c r="B17" s="7"/>
+      <x:c r="C17" s="7"/>
+      <x:c r="D17" s="7"/>
+      <x:c r="E17" s="7"/>
+      <x:c r="F17" s="7"/>
+      <x:c r="G17" s="7"/>
+      <x:c r="H17" s="7"/>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D16" s="9" t="s">
+      <x:c r="B18" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E16" s="9" t="s">
+      <x:c r="C18" s="9" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F16" s="9" t="s">
+      <x:c r="D18" s="9" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G16" s="9" t="s">
+      <x:c r="E18" s="9" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H16" s="9" t="s">
+      <x:c r="F18" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="A17" s="10" t="s">
+      <x:c r="G18" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B17" s="11" t="s">
+      <x:c r="H18" s="9" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C17" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D17" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E17" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F17" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G17" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H17" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:8">
-      <x:c r="A18" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B18" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C18" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D18" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E18" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F18" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G18" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H18" s="11" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B19" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C19" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D19" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E19" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F19" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G19" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H19" s="11" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="B19" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C19" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D19" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E19" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F19" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G19" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H19" s="11" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -824,66 +1005,689 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B20" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="11">
-        <x:v>99</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F20" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B21" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C21" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E21" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F21" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G21" s="11" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H21" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B22" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C22" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D22" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E22" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F22" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G22" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H22" s="11" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B23" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C23" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D23" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E23" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F23" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G23" s="11" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H23" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B24" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D24" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E24" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F24" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G24" s="11" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H24" s="11" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B25" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C25" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D25" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E25" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F25" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G25" s="11" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H25" s="11" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B26" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C26" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D26" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E26" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F26" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G26" s="11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H26" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B27" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C27" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D27" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E27" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F27" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G27" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H27" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B28" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C28" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D28" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E28" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F28" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G28" s="11" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H28" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
+      <x:c r="A29" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B29" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C29" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D29" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E29" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F29" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G29" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H29" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B30" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C30" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D30" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E30" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F30" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G30" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H30" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B31" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C31" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D31" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E31" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F31" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G31" s="11" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H31" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B32" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C32" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D32" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E32" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F32" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G32" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H32" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
+      <x:c r="A33" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B33" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C33" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D33" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E33" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F33" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G33" s="11" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H33" s="11" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="10" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B34" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C34" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D34" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E34" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F34" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G34" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H34" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B35" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C35" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D35" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E35" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F35" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G35" s="11" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H35" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B36" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C36" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D36" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E36" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F36" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G36" s="11" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H36" s="11" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B37" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C37" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D37" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E37" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F37" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G37" s="11" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H37" s="11" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
+      <x:c r="A38" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B38" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C38" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D38" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E38" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F38" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G38" s="11" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H38" s="11" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
+      <x:c r="A39" s="12"/>
+      <x:c r="B39" s="13"/>
+      <x:c r="C39" s="13"/>
+      <x:c r="D39" s="13"/>
+      <x:c r="E39" s="13"/>
+      <x:c r="F39" s="13"/>
+      <x:c r="G39" s="13"/>
+      <x:c r="H39" s="13"/>
+    </x:row>
+    <x:row r="40" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A40" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B40" s="7"/>
+      <x:c r="C40" s="7"/>
+      <x:c r="D40" s="7"/>
+      <x:c r="E40" s="7"/>
+      <x:c r="F40" s="7"/>
+      <x:c r="G40" s="7"/>
+      <x:c r="H40" s="7"/>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B41" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C41" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D41" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E41" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F41" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G41" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H41" s="9" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C21" s="11">
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B42" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C42" s="11">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D21" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E21" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F21" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G21" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H21" s="11" t="s">
-        <x:v>25</x:v>
+      <x:c r="D42" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E42" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F42" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G42" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H42" s="11" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="10" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B43" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C43" s="11">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D43" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E43" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F43" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G43" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H43" s="11" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="10" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B44" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C44" s="11">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D44" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E44" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F44" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G44" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H44" s="11" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B45" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C45" s="11">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D45" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E45" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F45" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G45" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H45" s="11" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="10" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B46" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C46" s="11">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D46" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E46" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F46" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G46" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H46" s="11" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="11">
+  <x:mergeCells count="14">
     <x:mergeCell ref="A1:H1"/>
     <x:mergeCell ref="A3:H3"/>
     <x:mergeCell ref="A5:H5"/>
     <x:mergeCell ref="A6:H6"/>
     <x:mergeCell ref="A7:H7"/>
     <x:mergeCell ref="A8:H8"/>
+    <x:mergeCell ref="A9:H9"/>
     <x:mergeCell ref="A10:H10"/>
-    <x:mergeCell ref="A11:H11"/>
     <x:mergeCell ref="A12:H12"/>
     <x:mergeCell ref="A13:H13"/>
+    <x:mergeCell ref="A14:H14"/>
     <x:mergeCell ref="A15:H15"/>
+    <x:mergeCell ref="A17:H17"/>
+    <x:mergeCell ref="A40:H40"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/For DB/1.xlsx
+++ b/For DB/1.xlsx
@@ -19,34 +19,34 @@
     <x:t>Отчет по группам здоровья для отделений</x:t>
   </x:si>
   <x:si>
-    <x:t>Всего выбрано студентов: 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «Основная»: 20 (80%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «Подготовительная»: 0 (0%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «СМГ»: 0 (0%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «ЛФК»: 0 (0%)</x:t>
+    <x:t>Всего выбрано студентов: 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Основная»: 17 (70,83%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Подготовительная»: 5 (20,83%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «СМГ»: 1 (4,17%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «ЛФК»: 1 (4,17%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой по физкультуре «Освобождение»: 0 (0%)</x:t>
   </x:si>
   <x:si>
-    <x:t>Студентов с группой по физкультуре «Не указана»: 5 (20%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой здоровья «1-группа»: 25 (100%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой здоровья «2-группа»: 0 (0%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой здоровья «3-группа»: 0 (0%)</x:t>
+    <x:t>Студентов с группой по физкультуре «Не указана»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «1-группа»: 17 (70,83%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «2-группа»: 5 (20,83%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «3-группа»: 2 (8,33%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой здоровья «4-группа»: 0 (0%)</x:t>
@@ -79,229 +79,229 @@
     <x:t>Группа годна</x:t>
   </x:si>
   <x:si>
-    <x:t>Белов Е. С.</x:t>
+    <x:t>Васильева У. И.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Т-094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планово-экономическая и аналитическая деятельность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основная</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нечаева В. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Щеглов Д. Н.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Васильев А. С.</x:t>
   </x:si>
   <x:si>
     <x:t>Т-095</x:t>
   </x:si>
   <x:si>
-    <x:t>Планово-экономическая и аналитическая деятельность</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основная</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-группа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Васильев А. С.</x:t>
-  </x:si>
-  <x:si>
     <x:t>17.12.2023</x:t>
   </x:si>
   <x:si>
-    <x:t>17.03.2024</x:t>
+    <x:t>17.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Голубев С. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Гусев Р. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Киселев И. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Комаров М. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кузнецов С. П.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Морозов А. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.06.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Новиков Я. М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Осипов Д. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Петров И. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Попов Д. И.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.03.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Семенов В. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.03.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смирнов А. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Титов П. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: Подготовительная</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Захаров К. Е.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовительная</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сурков И. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ильин Т. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.06.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Павлов А. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Соловьев М. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: СМГ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Волынцев Н. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>СМГ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: ЛФК</x:t>
   </x:si>
   <x:si>
     <x:t>Волков Н. А.</x:t>
   </x:si>
   <x:si>
+    <x:t>ЛФК</x:t>
+  </x:si>
+  <x:si>
     <x:t>23.12.2023</x:t>
   </x:si>
   <x:si>
     <x:t>23.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Волынцев Н. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Голубев С. В.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Гусев Р. С.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30.06.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ильин Т. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.06.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Киселев И. В.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Комаров М. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кузнецов С. П.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Морозов А. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Новиков Я. М.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Осипов Д. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Павлов А. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.06.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Петров И. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Попов Д. И.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Семенов В. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Смирнов А. В.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Соловьев М. В.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Титов П. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Медицинская группа: Не указана</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Васильева У. И.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>####</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Неопределенные</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не указана</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.05.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.05.2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Захаров К. Е.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Нечаева В. С.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сурков И. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Щеглов Д. Н.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -778,7 +778,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H46"/>
+  <x:dimension ref="A1:H51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1020,15 +1020,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G20" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H20" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="11" t="s">
         <x:v>22</x:v>
@@ -1046,18 +1046,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H21" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B22" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C22" s="11">
         <x:v>3</x:v>
@@ -1072,18 +1072,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H22" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B23" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="11">
         <x:v>3</x:v>
@@ -1098,18 +1098,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H23" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B24" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C24" s="11">
         <x:v>3</x:v>
@@ -1124,18 +1124,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G24" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H24" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B25" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="11">
         <x:v>3</x:v>
@@ -1150,18 +1150,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G25" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H25" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B26" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C26" s="11">
         <x:v>3</x:v>
@@ -1176,18 +1176,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G26" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H26" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="11">
         <x:v>3</x:v>
@@ -1202,18 +1202,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H27" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B28" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C28" s="11">
         <x:v>3</x:v>
@@ -1228,18 +1228,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G28" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H28" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B29" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="11">
         <x:v>3</x:v>
@@ -1254,18 +1254,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G29" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H29" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B30" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="11">
         <x:v>3</x:v>
@@ -1280,18 +1280,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G30" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H30" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B31" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C31" s="11">
         <x:v>3</x:v>
@@ -1306,18 +1306,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G31" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H31" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B32" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C32" s="11">
         <x:v>3</x:v>
@@ -1332,18 +1332,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H32" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B33" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C33" s="11">
         <x:v>3</x:v>
@@ -1358,18 +1358,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H33" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B34" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C34" s="11">
         <x:v>3</x:v>
@@ -1384,18 +1384,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G34" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H34" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B35" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C35" s="11">
         <x:v>3</x:v>
@@ -1410,270 +1410,340 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G35" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H35" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="12"/>
+      <x:c r="B36" s="13"/>
+      <x:c r="C36" s="13"/>
+      <x:c r="D36" s="13"/>
+      <x:c r="E36" s="13"/>
+      <x:c r="F36" s="13"/>
+      <x:c r="G36" s="13"/>
+      <x:c r="H36" s="13"/>
+    </x:row>
+    <x:row r="37" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A37" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B37" s="7"/>
+      <x:c r="C37" s="7"/>
+      <x:c r="D37" s="7"/>
+      <x:c r="E37" s="7"/>
+      <x:c r="F37" s="7"/>
+      <x:c r="G37" s="7"/>
+      <x:c r="H37" s="7"/>
+    </x:row>
+    <x:row r="38" spans="1:8">
+      <x:c r="A38" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B38" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C38" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D38" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E38" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F38" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G38" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H38" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
+      <x:c r="A39" s="10" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="H35" s="11" t="s">
+      <x:c r="B39" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C39" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D39" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E39" s="11" t="s">
         <x:v>75</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:8">
-      <x:c r="A36" s="10" t="s">
+      <x:c r="F39" s="11" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B36" s="11" t="s">
+      <x:c r="G39" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H39" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
+      <x:c r="A40" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B40" s="11" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C36" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D36" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E36" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F36" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G36" s="11" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H36" s="11" t="s">
+      <x:c r="C40" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D40" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E40" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F40" s="11" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G40" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H40" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="10" t="s">
         <x:v>78</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:8">
-      <x:c r="A37" s="10" t="s">
+      <x:c r="B41" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C41" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D41" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E41" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F41" s="11" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G41" s="11" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B37" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C37" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D37" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E37" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F37" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G37" s="11" t="s">
+      <x:c r="H41" s="11" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="H37" s="11" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:8">
-      <x:c r="A38" s="10" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B38" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C38" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D38" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E38" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F38" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G38" s="11" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="H38" s="11" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:8">
-      <x:c r="A39" s="12"/>
-      <x:c r="B39" s="13"/>
-      <x:c r="C39" s="13"/>
-      <x:c r="D39" s="13"/>
-      <x:c r="E39" s="13"/>
-      <x:c r="F39" s="13"/>
-      <x:c r="G39" s="13"/>
-      <x:c r="H39" s="13"/>
-    </x:row>
-    <x:row r="40" spans="1:8" ht="22" customHeight="1">
-      <x:c r="A40" s="6" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B40" s="7"/>
-      <x:c r="C40" s="7"/>
-      <x:c r="D40" s="7"/>
-      <x:c r="E40" s="7"/>
-      <x:c r="F40" s="7"/>
-      <x:c r="G40" s="7"/>
-      <x:c r="H40" s="7"/>
-    </x:row>
-    <x:row r="41" spans="1:8">
-      <x:c r="A41" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B41" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C41" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D41" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E41" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F41" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G41" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H41" s="9" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B42" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C42" s="11">
-        <x:v>99</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F42" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G42" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H42" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="10" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B43" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C43" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D43" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E43" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F43" s="11" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G43" s="11" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H43" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="12"/>
+      <x:c r="B44" s="13"/>
+      <x:c r="C44" s="13"/>
+      <x:c r="D44" s="13"/>
+      <x:c r="E44" s="13"/>
+      <x:c r="F44" s="13"/>
+      <x:c r="G44" s="13"/>
+      <x:c r="H44" s="13"/>
+    </x:row>
+    <x:row r="45" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A45" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B45" s="7"/>
+      <x:c r="C45" s="7"/>
+      <x:c r="D45" s="7"/>
+      <x:c r="E45" s="7"/>
+      <x:c r="F45" s="7"/>
+      <x:c r="G45" s="7"/>
+      <x:c r="H45" s="7"/>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B46" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C46" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D46" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E46" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F46" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G46" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H46" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B47" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C47" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D47" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E47" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F47" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G47" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H47" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8">
+      <x:c r="A48" s="12"/>
+      <x:c r="B48" s="13"/>
+      <x:c r="C48" s="13"/>
+      <x:c r="D48" s="13"/>
+      <x:c r="E48" s="13"/>
+      <x:c r="F48" s="13"/>
+      <x:c r="G48" s="13"/>
+      <x:c r="H48" s="13"/>
+    </x:row>
+    <x:row r="49" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A49" s="6" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B49" s="7"/>
+      <x:c r="C49" s="7"/>
+      <x:c r="D49" s="7"/>
+      <x:c r="E49" s="7"/>
+      <x:c r="F49" s="7"/>
+      <x:c r="G49" s="7"/>
+      <x:c r="H49" s="7"/>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B50" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C50" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D50" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E50" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F50" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G50" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H50" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8">
+      <x:c r="A51" s="10" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B43" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C43" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D43" s="11" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E43" s="11" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F43" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G43" s="11" t="s">
+      <x:c r="B51" s="11" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C51" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D51" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E51" s="11" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F51" s="11" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="H43" s="11" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:8">
-      <x:c r="A44" s="10" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="B44" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C44" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D44" s="11" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E44" s="11" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F44" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G44" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H44" s="11" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:8">
-      <x:c r="A45" s="10" t="s">
+      <x:c r="G51" s="11" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B45" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C45" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D45" s="11" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E45" s="11" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F45" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G45" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H45" s="11" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:8">
-      <x:c r="A46" s="10" t="s">
+      <x:c r="H51" s="11" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B46" s="11" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C46" s="11">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D46" s="11" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E46" s="11" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F46" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G46" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H46" s="11" t="s">
-        <x:v>91</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="14">
+  <x:mergeCells count="16">
     <x:mergeCell ref="A1:H1"/>
     <x:mergeCell ref="A3:H3"/>
     <x:mergeCell ref="A5:H5"/>
@@ -1687,7 +1757,9 @@
     <x:mergeCell ref="A14:H14"/>
     <x:mergeCell ref="A15:H15"/>
     <x:mergeCell ref="A17:H17"/>
-    <x:mergeCell ref="A40:H40"/>
+    <x:mergeCell ref="A37:H37"/>
+    <x:mergeCell ref="A45:H45"/>
+    <x:mergeCell ref="A49:H49"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/For DB/1.xlsx
+++ b/For DB/1.xlsx
@@ -19,19 +19,19 @@
     <x:t>Отчет по группам здоровья для отделений</x:t>
   </x:si>
   <x:si>
-    <x:t>Всего выбрано студентов: 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «Основная»: 17 (70,83%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «Подготовительная»: 5 (20,83%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «СМГ»: 1 (4,17%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «ЛФК»: 1 (4,17%)</x:t>
+    <x:t>Всего выбрано студентов: 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Основная»: 20 (100%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Подготовительная»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «СМГ»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «ЛФК»: 0 (0%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой по физкультуре «Освобождение»: 0 (0%)</x:t>
@@ -40,18 +40,21 @@
     <x:t>Студентов с группой по физкультуре «Не указана»: 0 (0%)</x:t>
   </x:si>
   <x:si>
-    <x:t>Студентов с группой здоровья «1-группа»: 17 (70,83%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой здоровья «2-группа»: 5 (20,83%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой здоровья «3-группа»: 2 (8,33%)</x:t>
+    <x:t>Студентов с группой здоровья «1-группа»: 20 (100%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «2-группа»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «3-группа»: 0 (0%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой здоровья «4-группа»: 0 (0%)</x:t>
   </x:si>
   <x:si>
+    <x:t>Студентов с группой здоровья «Не указана»: 0 (0%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Медицинская группа: Основная</x:t>
   </x:si>
   <x:si>
@@ -79,10 +82,10 @@
     <x:t>Группа годна</x:t>
   </x:si>
   <x:si>
-    <x:t>Васильева У. И.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Т-094</x:t>
+    <x:t>Белов Е. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Т-095</x:t>
   </x:si>
   <x:si>
     <x:t>Планово-экономическая и аналитическая деятельность</x:t>
@@ -94,30 +97,39 @@
     <x:t>1-группа</x:t>
   </x:si>
   <x:si>
+    <x:t>26.11.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.11.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Васильев А. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Волков Н. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Волынцев Н. А.</x:t>
+  </x:si>
+  <x:si>
     <x:t>12.12.2023</x:t>
   </x:si>
   <x:si>
     <x:t>12.12.2024</x:t>
   </x:si>
   <x:si>
-    <x:t>Нечаева В. С.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Щеглов Д. Н.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Васильев А. С.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Т-095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.12.2024</x:t>
-  </x:si>
-  <x:si>
     <x:t>Голубев С. В.</x:t>
   </x:si>
   <x:si>
@@ -136,31 +148,40 @@
     <x:t>30.12.2024</x:t>
   </x:si>
   <x:si>
+    <x:t>Ильин Т. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.07.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.07.2024</x:t>
+  </x:si>
+  <x:si>
     <x:t>Киселев И. В.</x:t>
   </x:si>
   <x:si>
-    <x:t>28.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.12.2024</x:t>
+    <x:t>28.06.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.06.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Комаров М. А.</x:t>
   </x:si>
   <x:si>
-    <x:t>27.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27.12.2024</x:t>
+    <x:t>27.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.08.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Кузнецов С. П.</x:t>
   </x:si>
   <x:si>
-    <x:t>15.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.12.2024</x:t>
+    <x:t>15.03.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.03.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Морозов А. А.</x:t>
@@ -169,7 +190,7 @@
     <x:t>22.12.2023</x:t>
   </x:si>
   <x:si>
-    <x:t>22.06.2024</x:t>
+    <x:t>22.12.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Новиков Я. М.</x:t>
@@ -184,10 +205,19 @@
     <x:t>Осипов Д. А.</x:t>
   </x:si>
   <x:si>
-    <x:t>25.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.12.2024</x:t>
+    <x:t>25.10.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.10.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Павлов А. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.10.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.10.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Петров И. А.</x:t>
@@ -205,103 +235,43 @@
     <x:t>16.12.2023</x:t>
   </x:si>
   <x:si>
-    <x:t>16.03.2024</x:t>
+    <x:t>16.12.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Семенов В. А.</x:t>
   </x:si>
   <x:si>
-    <x:t>19.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19.03.2024</x:t>
+    <x:t>19.11.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.11.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Смирнов А. В.</x:t>
   </x:si>
   <x:si>
-    <x:t>14.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.12.2024</x:t>
+    <x:t>14.06.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.06.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Соловьев М. В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.05.2024</x:t>
   </x:si>
   <x:si>
     <x:t>Титов П. А.</x:t>
   </x:si>
   <x:si>
-    <x:t>31.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Медицинская группа: Подготовительная</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Захаров К. Е.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подготовительная</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-группа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сурков И. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ильин Т. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.06.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Павлов А. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Соловьев М. В.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24.12.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Медицинская группа: СМГ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Волынцев Н. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СМГ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-группа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Медицинская группа: ЛФК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Волков Н. А.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ЛФК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.12.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.12.2024</x:t>
+    <x:t>31.03.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.03.2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,7 +373,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -422,11 +392,8 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -472,14 +439,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -778,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H51"/>
+  <x:dimension ref="A1:H39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -787,7 +746,8 @@
     <x:col min="1" max="1" width="25.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="20.710625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="24.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="50.710625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="24.710625" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="20.710625" style="1" customWidth="1"/>
     <x:col min="7" max="8" width="19.710625" style="1" customWidth="1"/>
   </x:cols>
@@ -936,94 +896,80 @@
       <x:c r="G15" s="5"/>
       <x:c r="H15" s="5"/>
     </x:row>
-    <x:row r="17" spans="1:8" ht="22" customHeight="1">
-      <x:c r="A17" s="6" t="s">
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B17" s="7"/>
-      <x:c r="C17" s="7"/>
-      <x:c r="D17" s="7"/>
-      <x:c r="E17" s="7"/>
-      <x:c r="F17" s="7"/>
-      <x:c r="G17" s="7"/>
-      <x:c r="H17" s="7"/>
-    </x:row>
-    <x:row r="18" spans="1:8">
-      <x:c r="A18" s="8" t="s">
+      <x:c r="B16" s="5"/>
+      <x:c r="C16" s="5"/>
+      <x:c r="D16" s="5"/>
+      <x:c r="E16" s="5"/>
+      <x:c r="F16" s="5"/>
+      <x:c r="G16" s="5"/>
+      <x:c r="H16" s="5"/>
+    </x:row>
+    <x:row r="18" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A18" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B18" s="9" t="s">
+      <x:c r="B18" s="7"/>
+      <x:c r="C18" s="7"/>
+      <x:c r="D18" s="7"/>
+      <x:c r="E18" s="7"/>
+      <x:c r="F18" s="7"/>
+      <x:c r="G18" s="7"/>
+      <x:c r="H18" s="7"/>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="8" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C18" s="9" t="s">
+      <x:c r="B19" s="9" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D18" s="9" t="s">
+      <x:c r="C19" s="9" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E18" s="9" t="s">
+      <x:c r="D19" s="9" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F18" s="9" t="s">
+      <x:c r="E19" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="G18" s="9" t="s">
+      <x:c r="F19" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="H18" s="9" t="s">
+      <x:c r="G19" s="9" t="s">
         <x:v>20</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:8">
-      <x:c r="A19" s="10" t="s">
+      <x:c r="H19" s="9" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="B19" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C19" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D19" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E19" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F19" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G19" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H19" s="11" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B20" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C20" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D20" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E20" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F20" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G20" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H20" s="11" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="B20" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C20" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D20" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E20" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F20" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G20" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H20" s="11" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -1031,719 +977,497 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F21" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H21" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B22" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F22" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G22" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H22" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B23" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E23" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F23" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G23" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H23" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B24" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C24" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G24" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H24" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B25" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C25" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F25" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G25" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H25" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B26" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C26" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F26" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G26" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H26" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B27" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C27" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D27" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F27" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G27" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H27" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B28" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C28" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D28" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E28" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G28" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H28" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B29" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C29" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D29" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E29" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F29" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G29" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H29" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B30" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C30" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D30" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E30" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F30" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G30" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H30" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B31" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C31" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D31" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F31" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G31" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H31" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B32" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D32" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E32" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F32" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H32" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B33" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C33" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D33" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F33" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G33" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H33" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B34" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C34" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D34" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F34" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G34" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H34" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B35" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C35" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D35" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F35" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G35" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H35" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
-      <x:c r="A36" s="12"/>
-      <x:c r="B36" s="13"/>
-      <x:c r="C36" s="13"/>
-      <x:c r="D36" s="13"/>
-      <x:c r="E36" s="13"/>
-      <x:c r="F36" s="13"/>
-      <x:c r="G36" s="13"/>
-      <x:c r="H36" s="13"/>
-    </x:row>
-    <x:row r="37" spans="1:8" ht="22" customHeight="1">
-      <x:c r="A37" s="6" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B37" s="7"/>
-      <x:c r="C37" s="7"/>
-      <x:c r="D37" s="7"/>
-      <x:c r="E37" s="7"/>
-      <x:c r="F37" s="7"/>
-      <x:c r="G37" s="7"/>
-      <x:c r="H37" s="7"/>
+      <x:c r="A36" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B36" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C36" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D36" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E36" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F36" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G36" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H36" s="11" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B37" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C37" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D37" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E37" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F37" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G37" s="11" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H37" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
-      <x:c r="A38" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B38" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C38" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D38" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E38" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F38" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G38" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H38" s="9" t="s">
-        <x:v>20</x:v>
+      <x:c r="A38" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B38" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C38" s="11">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D38" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E38" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F38" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G38" s="11" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H38" s="11" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B39" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C39" s="11">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D39" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E39" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F39" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G39" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H39" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:8">
-      <x:c r="A40" s="10" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B40" s="11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C40" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D40" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E40" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F40" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G40" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H40" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:8">
-      <x:c r="A41" s="10" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B41" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C41" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D41" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E41" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F41" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G41" s="11" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H41" s="11" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:8">
-      <x:c r="A42" s="10" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B42" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C42" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D42" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E42" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F42" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G42" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H42" s="11" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:8">
-      <x:c r="A43" s="10" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B43" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C43" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D43" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E43" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F43" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G43" s="11" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="H43" s="11" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:8">
-      <x:c r="A44" s="12"/>
-      <x:c r="B44" s="13"/>
-      <x:c r="C44" s="13"/>
-      <x:c r="D44" s="13"/>
-      <x:c r="E44" s="13"/>
-      <x:c r="F44" s="13"/>
-      <x:c r="G44" s="13"/>
-      <x:c r="H44" s="13"/>
-    </x:row>
-    <x:row r="45" spans="1:8" ht="22" customHeight="1">
-      <x:c r="A45" s="6" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B45" s="7"/>
-      <x:c r="C45" s="7"/>
-      <x:c r="D45" s="7"/>
-      <x:c r="E45" s="7"/>
-      <x:c r="F45" s="7"/>
-      <x:c r="G45" s="7"/>
-      <x:c r="H45" s="7"/>
-    </x:row>
-    <x:row r="46" spans="1:8">
-      <x:c r="A46" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B46" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C46" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D46" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E46" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F46" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G46" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H46" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:8">
-      <x:c r="A47" s="10" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B47" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C47" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D47" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E47" s="11" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F47" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G47" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H47" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:8">
-      <x:c r="A48" s="12"/>
-      <x:c r="B48" s="13"/>
-      <x:c r="C48" s="13"/>
-      <x:c r="D48" s="13"/>
-      <x:c r="E48" s="13"/>
-      <x:c r="F48" s="13"/>
-      <x:c r="G48" s="13"/>
-      <x:c r="H48" s="13"/>
-    </x:row>
-    <x:row r="49" spans="1:8" ht="22" customHeight="1">
-      <x:c r="A49" s="6" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B49" s="7"/>
-      <x:c r="C49" s="7"/>
-      <x:c r="D49" s="7"/>
-      <x:c r="E49" s="7"/>
-      <x:c r="F49" s="7"/>
-      <x:c r="G49" s="7"/>
-      <x:c r="H49" s="7"/>
-    </x:row>
-    <x:row r="50" spans="1:8">
-      <x:c r="A50" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B50" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C50" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D50" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E50" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F50" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G50" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H50" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:8">
-      <x:c r="A51" s="10" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B51" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C51" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D51" s="11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E51" s="11" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F51" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G51" s="11" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H51" s="11" t="s">
-        <x:v>95</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="16">
+  <x:mergeCells count="14">
     <x:mergeCell ref="A1:H1"/>
     <x:mergeCell ref="A3:H3"/>
     <x:mergeCell ref="A5:H5"/>
@@ -1756,10 +1480,8 @@
     <x:mergeCell ref="A13:H13"/>
     <x:mergeCell ref="A14:H14"/>
     <x:mergeCell ref="A15:H15"/>
-    <x:mergeCell ref="A17:H17"/>
-    <x:mergeCell ref="A37:H37"/>
-    <x:mergeCell ref="A45:H45"/>
-    <x:mergeCell ref="A49:H49"/>
+    <x:mergeCell ref="A16:H16"/>
+    <x:mergeCell ref="A18:H18"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/For DB/1.xlsx
+++ b/For DB/1.xlsx
@@ -19,10 +19,10 @@
     <x:t>Отчет по группам здоровья для отделений</x:t>
   </x:si>
   <x:si>
-    <x:t>Всего выбрано студентов: 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой по физкультуре «Основная»: 20 (100%)</x:t>
+    <x:t>Всего выбрано студентов: 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой по физкультуре «Основная»: 20 (80%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой по физкультуре «Подготовительная»: 0 (0%)</x:t>
@@ -37,10 +37,10 @@
     <x:t>Студентов с группой по физкультуре «Освобождение»: 0 (0%)</x:t>
   </x:si>
   <x:si>
-    <x:t>Студентов с группой по физкультуре «Не указана»: 0 (0%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Студентов с группой здоровья «1-группа»: 20 (100%)</x:t>
+    <x:t>Студентов с группой по физкультуре «Не указана»: 5 (20%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Студентов с группой здоровья «1-группа»: 20 (80%)</x:t>
   </x:si>
   <x:si>
     <x:t>Студентов с группой здоровья «2-группа»: 0 (0%)</x:t>
@@ -52,7 +52,7 @@
     <x:t>Студентов с группой здоровья «4-группа»: 0 (0%)</x:t>
   </x:si>
   <x:si>
-    <x:t>Студентов с группой здоровья «Не указана»: 0 (0%)</x:t>
+    <x:t>Студентов с группой здоровья «Не указана»: 5 (20%)</x:t>
   </x:si>
   <x:si>
     <x:t>Медицинская группа: Основная</x:t>
@@ -88,7 +88,7 @@
     <x:t>Т-095</x:t>
   </x:si>
   <x:si>
-    <x:t>Планово-экономическая и аналитическая деятельность</x:t>
+    <x:t>ПОИТ</x:t>
   </x:si>
   <x:si>
     <x:t>Основная</x:t>
@@ -272,6 +272,57 @@
   </x:si>
   <x:si>
     <x:t>31.03.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медицинская группа: Не указана</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Захаров К. Е.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>л</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бух. учет, анализ и контроль</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не указана</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нечаева В. С.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сурков И. А.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Щеглов Д. Н.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.12.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Васильева У. И.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>####</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Неопределенные</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05.12.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05.12.2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,7 +424,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -392,8 +443,11 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -439,6 +493,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -737,7 +799,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H39"/>
+  <x:dimension ref="A1:H47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1466,8 +1528,186 @@
         <x:v>85</x:v>
       </x:c>
     </x:row>
+    <x:row r="40" spans="1:8">
+      <x:c r="A40" s="12"/>
+      <x:c r="B40" s="13"/>
+      <x:c r="C40" s="13"/>
+      <x:c r="D40" s="13"/>
+      <x:c r="E40" s="13"/>
+      <x:c r="F40" s="13"/>
+      <x:c r="G40" s="13"/>
+      <x:c r="H40" s="13"/>
+    </x:row>
+    <x:row r="41" spans="1:8" ht="22" customHeight="1">
+      <x:c r="A41" s="6" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B41" s="7"/>
+      <x:c r="C41" s="7"/>
+      <x:c r="D41" s="7"/>
+      <x:c r="E41" s="7"/>
+      <x:c r="F41" s="7"/>
+      <x:c r="G41" s="7"/>
+      <x:c r="H41" s="7"/>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B42" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C42" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D42" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E42" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F42" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G42" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H42" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B43" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C43" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D43" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E43" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F43" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G43" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H43" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="10" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B44" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C44" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D44" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E44" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F44" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G44" s="11" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H44" s="11" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B45" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C45" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D45" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E45" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F45" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G45" s="11" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H45" s="11" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="10" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B46" s="11" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C46" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D46" s="11" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E46" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F46" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G46" s="11" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H46" s="11" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="10" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B47" s="11" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C47" s="11">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D47" s="11" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E47" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F47" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G47" s="11" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H47" s="11" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="14">
+  <x:mergeCells count="15">
     <x:mergeCell ref="A1:H1"/>
     <x:mergeCell ref="A3:H3"/>
     <x:mergeCell ref="A5:H5"/>
@@ -1482,6 +1722,7 @@
     <x:mergeCell ref="A15:H15"/>
     <x:mergeCell ref="A16:H16"/>
     <x:mergeCell ref="A18:H18"/>
+    <x:mergeCell ref="A41:H41"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
